--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A6_a0.1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A6_a0.1.xlsx
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">

--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A6_a0.1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A6_a0.1.xlsx
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="n">
         <v>0.1</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>

--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A6_a0.1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A6_a0.1.xlsx
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K9" t="n">
         <v>0.1</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1747,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
